--- a/backend/doc.xlsx
+++ b/backend/doc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="46">
   <si>
     <t xml:space="preserve">REST APIs</t>
   </si>
@@ -52,35 +52,7 @@
     <t xml:space="preserve">LOGIN</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">HOST</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">/user</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/login</t>
-    </r>
+    <t xml:space="preserve">HOST/user/login</t>
   </si>
   <si>
     <t xml:space="preserve">DEFAULT</t>
@@ -95,35 +67,7 @@
     <t xml:space="preserve">LOGOUT</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">HOST</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">/user</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/logout</t>
-    </r>
+    <t xml:space="preserve">HOST/user/logout</t>
   </si>
   <si>
     <t xml:space="preserve">Logout User</t>
@@ -141,32 +85,7 @@
     <t xml:space="preserve">READ</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">HOST</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">/user</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/profile</t>
-    </r>
+    <t xml:space="preserve">HOST/user/profile</t>
   </si>
   <si>
     <t xml:space="preserve">View User Profile</t>
@@ -178,32 +97,7 @@
     <t xml:space="preserve">UPDATE</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">HOST</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">/user</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/update</t>
-    </r>
+    <t xml:space="preserve">HOST/user/update</t>
   </si>
   <si>
     <t xml:space="preserve">Update User Info</t>
@@ -215,32 +109,7 @@
     <t xml:space="preserve">DELETE</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">HOST</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">/user</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/delete</t>
-    </r>
+    <t xml:space="preserve">HOST/user/delete</t>
   </si>
   <si>
     <t xml:space="preserve">Delete User Account</t>
@@ -261,128 +130,34 @@
     <t xml:space="preserve">View Event Owner Profile</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">HOST</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">/event</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/register</t>
-    </r>
+    <t xml:space="preserve">HOST/event/register</t>
   </si>
   <si>
     <t xml:space="preserve">Create Event</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">HOST</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">/event</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/info/:eventid</t>
-    </r>
+    <t xml:space="preserve">HOST/event/info/:eventid</t>
   </si>
   <si>
     <t xml:space="preserve">View Event Info</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">HOST</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">/event</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/update/:eventid</t>
-    </r>
+    <t xml:space="preserve">HOST/event/update/:eventid</t>
   </si>
   <si>
     <t xml:space="preserve">Update Event</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">HOST</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">/event</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/delete/:eventid</t>
-    </r>
+    <t xml:space="preserve">HOST/event/delete/:eventid</t>
   </si>
   <si>
     <t xml:space="preserve">Delete Event</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invites</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Images</t>
   </si>
 </sst>
 </file>
@@ -392,7 +167,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -448,21 +223,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="6"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="7"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -610,7 +374,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -787,10 +551,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
+      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1102,8 +866,120 @@
         <v>43</v>
       </c>
     </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="28"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="12"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="25"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="28"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="12"/>
+    </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="25">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="C3:D3"/>
@@ -1121,6 +997,14 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/backend/doc.xlsx
+++ b/backend/doc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="59">
   <si>
     <t xml:space="preserve">REST APIs</t>
   </si>
@@ -37,9 +37,6 @@
     <t xml:space="preserve">End Points </t>
   </si>
   <si>
-    <t xml:space="preserve">Status Code</t>
-  </si>
-  <si>
     <t xml:space="preserve">Description</t>
   </si>
   <si>
@@ -55,9 +52,6 @@
     <t xml:space="preserve">HOST/user/login</t>
   </si>
   <si>
-    <t xml:space="preserve">DEFAULT</t>
-  </si>
-  <si>
     <t xml:space="preserve">Login User</t>
   </si>
   <si>
@@ -88,7 +82,22 @@
     <t xml:space="preserve">HOST/user/profile</t>
   </si>
   <si>
-    <t xml:space="preserve">View User Profile</t>
+    <t xml:space="preserve"> User Profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status Codes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status Messages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOST/user/profile?id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Users Profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sucsessful</t>
   </si>
   <si>
     <t xml:space="preserve">PUT</t>
@@ -103,7 +112,10 @@
     <t xml:space="preserve">Update User Info</t>
   </si>
   <si>
-    <t xml:space="preserve">Better To  Use PATCH</t>
+    <t xml:space="preserve">PATCH Preferred</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Created</t>
   </si>
   <si>
     <t xml:space="preserve">DELETE</t>
@@ -115,19 +127,34 @@
     <t xml:space="preserve">Delete User Account</t>
   </si>
   <si>
+    <t xml:space="preserve">Moved  Permanently</t>
+  </si>
+  <si>
     <t xml:space="preserve">Events</t>
   </si>
   <si>
+    <t xml:space="preserve">Unauthorized</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Forbidden</t>
+  </si>
+  <si>
     <t xml:space="preserve">HOST/</t>
   </si>
   <si>
     <t xml:space="preserve">View All Events</t>
   </si>
   <si>
+    <t xml:space="preserve">Not Found</t>
+  </si>
+  <si>
     <t xml:space="preserve">HOST/event/:eventid/owner</t>
   </si>
   <si>
-    <t xml:space="preserve">View Event Owner Profile</t>
+    <t xml:space="preserve">Get Event Owner Profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server Error</t>
   </si>
   <si>
     <t xml:space="preserve">HOST/event/register</t>
@@ -157,7 +184,19 @@
     <t xml:space="preserve">Invites</t>
   </si>
   <si>
-    <t xml:space="preserve">Images</t>
+    <t xml:space="preserve">HOST/event/:eventid?userid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create &amp; Send  Invite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add User To Wait List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accept Invite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete Invite</t>
   </si>
 </sst>
 </file>
@@ -167,7 +206,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -228,8 +267,19 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,6 +306,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF333333"/>
+        <bgColor rgb="FF333300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF2EACC0"/>
         <bgColor rgb="FF339966"/>
       </patternFill>
@@ -274,6 +330,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFE5901"/>
+        <bgColor rgb="FFC35A38"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA62626"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFCA9831"/>
         <bgColor rgb="FFFF8080"/>
       </patternFill>
@@ -281,25 +349,25 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC35A38"/>
-        <bgColor rgb="FF993366"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA62626"/>
-        <bgColor rgb="FF993366"/>
+        <bgColor rgb="FFFE5901"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8E2098"/>
+        <bgColor rgb="FF800080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3B6FBA"/>
+        <bgColor rgb="FF666699"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF158289"/>
         <bgColor rgb="FF008080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF3B6FBA"/>
-        <bgColor rgb="FF666699"/>
       </patternFill>
     </fill>
   </fills>
@@ -337,7 +405,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="44">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -374,23 +442,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -398,6 +450,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -406,35 +462,71 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -446,31 +538,47 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -502,7 +610,7 @@
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF6483B0"/>
       <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF8E2098"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
@@ -530,7 +638,7 @@
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFCA9831"/>
-      <rgbColor rgb="FFC35A38"/>
+      <rgbColor rgb="FFFE5901"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
@@ -538,7 +646,7 @@
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FFA62626"/>
-      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFC35A38"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
     </indexedColors>
@@ -551,17 +659,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="14.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="12.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="12.42"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -574,7 +683,6 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
@@ -585,7 +693,6 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
@@ -604,384 +711,450 @@
       <c r="F3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>10</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>13</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>15</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="9"/>
+        <v>14</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="F6" s="9"/>
+      <c r="G6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14" t="s">
+      <c r="C7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17" t="s">
+      <c r="B8" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="19" t="n">
+        <v>200</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="24" t="n">
+        <v>201</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="26"/>
+      <c r="E10" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28" t="n">
+        <v>301</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="29" t="n">
+        <v>401</v>
+      </c>
+      <c r="H11" s="29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="30" t="n">
+        <v>403</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="18"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="21" t="s">
+      <c r="B13" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="32"/>
+      <c r="E13" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="27"/>
+      <c r="G13" s="33" t="n">
+        <v>404</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="B14" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="35"/>
+      <c r="E14" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="27"/>
+      <c r="G14" s="10" t="n">
+        <v>500</v>
+      </c>
+      <c r="H14" s="36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="27"/>
+      <c r="G15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="38"/>
+      <c r="E16" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="27"/>
+      <c r="G16" s="0"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="B17" s="21" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="24" t="s">
+      <c r="C17" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="26"/>
+      <c r="E18" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="27"/>
+      <c r="G18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="0"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="0"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="40"/>
+      <c r="E21" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="27"/>
+      <c r="G21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="26" t="s">
+      <c r="B22" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="41"/>
+      <c r="E22" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="27"/>
+      <c r="G22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="42"/>
+      <c r="E23" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="27"/>
+      <c r="G23" s="0"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="31" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="28"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="12"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="B24" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="43"/>
+      <c r="E24" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="27"/>
+      <c r="G24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="25"/>
+      <c r="A25" s="0"/>
+      <c r="G25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="28"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="28"/>
+      <c r="A26" s="0"/>
+      <c r="G26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="12"/>
+      <c r="A27" s="0"/>
+      <c r="G27" s="0"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0"/>
+      <c r="G28" s="0"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0"/>
+      <c r="G29" s="0"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:G2"/>
+  <mergeCells count="24">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:F2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
@@ -989,22 +1162,21 @@
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A11:F11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
